--- a/ONCHO/Impact Assessments/Nigeria/2023/jagawa case/ng_oncho_prestop_2_participant_202208_jigawa.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/2023/jagawa case/ng_oncho_prestop_2_participant_202208_jigawa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\ONCHO\Impact Assessments\Nigeria\2023\jagawa case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8DE7F5-29D4-4DF4-AB16-A385AE35097D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9348F042-6622-491F-95B5-EB361C4D2542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
